--- a/DB/TalkDB.xlsx
+++ b/DB/TalkDB.xlsx
@@ -19,25 +19,25 @@
     <t>strings</t>
   </si>
   <si>
-    <t>Hi\my name is ryza\ i need some help</t>
-  </si>
-  <si>
-    <t>please catch some wolf</t>
-  </si>
-  <si>
-    <t>Za</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Hello, It's a good Day</t>
-  </si>
-  <si>
-    <t>Thanks</t>
+    <t>안녕하세요. 제 이름은 서성연이에요.\제 고양이 우르사를 괴롭히는 녀석이 있어요.</t>
+  </si>
+  <si>
+    <t>늑대를 잡아주세요.</t>
+  </si>
+  <si>
+    <t>꼭 부탁드려요.</t>
+  </si>
+  <si>
+    <t>네</t>
+  </si>
+  <si>
+    <t>아니오</t>
+  </si>
+  <si>
+    <t>안녕하세요. 좋은날이에요.</t>
+  </si>
+  <si>
+    <t>왜 제 고양이까지 죽인거에요? 미친거 아니야?</t>
   </si>
   <si>
     <t>Temp</t>
@@ -52,10 +52,12 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -293,7 +295,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
